--- a/biology/Histoire de la zoologie et de la botanique/Rudolph_Bergh/Rudolph_Bergh.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rudolph_Bergh/Rudolph_Bergh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludvig Sophus Rudolph Bergh (1824-1909) est un médecin et zoologiste danois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1863, Rudolph Bergh devient médecin chef à l’hôpital général Almindeligt Hospital de la rue Amaliegade de Copenhague – aujourd’hui disparu – travaillant au département de dermatologie et des maladies vénériennes. Il change en 1886 pour Vestre Hospital où il opère jusqu’en 1903. L’année suivant sa mort, l’hôpital Vestre Hospital prend son nom. En ce lieu et jusqu’en 2000 sont alors dispensés gratuitement et anonymement des examens pour les maladies vénériennes, dont le sida, en plus de renseignements pour leur prévention.
 Cet hôpital est fermé pour raisons économiques en 2000 et une partie de ses services sont transférés à l’hôpital de Bispebjerg, à Copenhague.
